--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3160828.939479639</v>
+        <v>3158576.859768432</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.03085908134837</v>
       </c>
       <c r="E2" t="n">
-        <v>142.5539553534398</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>210.058734697855</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>203.6370483417284</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>142.6796929637941</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.41379075544685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247644</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>40.99623605038607</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>159.5199829376698</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.74698963171072</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>14.42881909501614</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>123.2466410952175</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>12.61028049873698</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>63.34420421319582</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206839</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.92158678358345</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>38.05096575280812</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>162.7401913819098</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>40.53421095546966</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>99.6514066310757</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>134.5665975534139</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>180.6232466454911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165768</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745813</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.7394996880296</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057989</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>100.2041656279966</v>
+        <v>141.4513012076587</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>91.89996056624759</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>126.6321535627876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.52688261361</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.564365673198</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.564365673198</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653544</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1792.126722677732</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W4" t="n">
-        <v>1356.361036635886</v>
+        <v>1012.558641511645</v>
       </c>
       <c r="X4" t="n">
-        <v>1128.371485737869</v>
+        <v>784.5690906136274</v>
       </c>
       <c r="Y4" t="n">
-        <v>922.6774975139006</v>
+        <v>563.7765114700973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>557.1590183167814</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>550.2135175675779</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,25 +4577,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
@@ -4604,13 +4604,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>720.5449729949381</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C7" t="n">
-        <v>720.5449729949381</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>570.4283335826024</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>422.5152400002092</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>275.6252925022989</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>107.9224558770178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1169.327103036486</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X7" t="n">
-        <v>941.3375521384683</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y7" t="n">
-        <v>720.5449729949381</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3314.750276526634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3108.772528910857</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>3108.772528910857</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V8" t="n">
-        <v>3108.772528910857</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W8" t="n">
-        <v>3108.772528910857</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4902,7 +4902,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4911,16 +4911,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1048.402400478362</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C10" t="n">
-        <v>879.4662175504554</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>729.3495781381197</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>581.4364845557266</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>434.5465370578162</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1450.843444452132</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1450.843444452132</v>
+        <v>867.4865790926983</v>
       </c>
       <c r="Y10" t="n">
-        <v>1230.050865308602</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5069,19 +5069,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803938</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2341.482060890433</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>448.1846595309963</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>229.7425191625314</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>1888.077129657224</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2311.700279152292</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2544.961939527175</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.8230468926974</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1251.253641764485</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1023.264090866467</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>802.4715117229372</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2598873597757</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309963</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368208</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>481.447947124485</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>333.5348535420919</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F43" t="n">
-        <v>186.6449060441816</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.359690138258429e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.005417971100542e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>85.27126880501653</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393478</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9753202488365</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>123.7828069546812</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>152.4862366927523</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>10.85445046951733</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>105.8997516910999</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.845153664065208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715149</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>125.5054897610405</v>
+        <v>84.25835418137842</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>73.62417772602126</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>730000.4839664822</v>
+        <v>730000.4839664821</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>717842.2100639894</v>
+        <v>717842.2100639895</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
@@ -26320,34 +26320,34 @@
         <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287555</v>
@@ -26366,7 +26366,7 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181812</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181815</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181812</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26451,7 +26451,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809841.0926109072</v>
+        <v>-809841.092610907</v>
       </c>
       <c r="C6" t="n">
-        <v>518903.6531166852</v>
+        <v>518903.653116685</v>
       </c>
       <c r="D6" t="n">
         <v>518903.6531166851</v>
       </c>
       <c r="E6" t="n">
-        <v>267331.3629156753</v>
+        <v>267296.6249902394</v>
       </c>
       <c r="F6" t="n">
-        <v>592743.8247230302</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="G6" t="n">
-        <v>592743.82472303</v>
+        <v>592709.0867975946</v>
       </c>
       <c r="H6" t="n">
-        <v>592743.8247230299</v>
+        <v>592709.0867975946</v>
       </c>
       <c r="I6" t="n">
-        <v>592743.8247230301</v>
+        <v>592709.0867975943</v>
       </c>
       <c r="J6" t="n">
-        <v>375212.6223257527</v>
+        <v>375177.8844003168</v>
       </c>
       <c r="K6" t="n">
-        <v>592743.8247230303</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="L6" t="n">
-        <v>592743.8247230303</v>
+        <v>592709.0867975948</v>
       </c>
       <c r="M6" t="n">
-        <v>507688.7967875184</v>
+        <v>507654.0588620827</v>
       </c>
       <c r="N6" t="n">
-        <v>592743.8247230302</v>
+        <v>592709.0867975948</v>
       </c>
       <c r="O6" t="n">
-        <v>592743.8247230303</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="P6" t="n">
-        <v>592743.8247230304</v>
+        <v>592709.0867975948</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="E2" t="n">
-        <v>239.376414718822</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>76.46426363873596</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.94760501036643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>268.2420326896593</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>344.8241479006068</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>103.7587788639347</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>59.064670414425</v>
       </c>
     </row>
     <row r="8">
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>98.44077215646512</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>189.489151044604</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>42.7791671638107</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>213.0993748903002</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-3.757363142372276e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>342.8454457931495</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>153.8606640989137</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394812</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665585</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>145.7021085929663</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518522</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>137.7376326175082</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>205.0040068187905</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>8.181160134949776</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>71.39556506237828</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454015</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>18.86448192629965</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>6.39592053417488</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
